--- a/template.xlsx
+++ b/template.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="过滤掉" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">过滤掉!$A$1:$V$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>Contact</t>
   </si>
@@ -90,6 +92,18 @@
   </si>
   <si>
     <t>Segment</t>
+  </si>
+  <si>
+    <t>是否有附件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>原链接</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -536,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -558,6 +572,9 @@
     <col min="14" max="14" width="18.1640625" style="10" customWidth="1"/>
     <col min="15" max="15" width="22.5" style="12" customWidth="1"/>
     <col min="16" max="16" width="20.08203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="6" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
@@ -609,9 +626,120 @@
       <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:V1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;KFF8C00Classification: CONFIDENTIAL&amp;1#</oddHeader>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;KFF8C00Classification: CONFIDENTIAL</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.9140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.4140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.83203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="5.25" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="22.5" style="12" customWidth="1"/>
+    <col min="16" max="16" width="20.08203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="6" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
